--- a/biology/Zoologie/Ceratrimeria/Ceratrimeria.xlsx
+++ b/biology/Zoologie/Ceratrimeria/Ceratrimeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratrimeria est un genre de collemboles de la famille des Neanuridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Océanie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 28 octobre 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 28 octobre 2019) :
 Ceratrimeria aurea Salmon, 1944
 Ceratrimeria crassa (Oudemans, 1890)
 Ceratrimeria harrisi Salmon, 1942
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Börner, 1906. Das System der Collembolen nebst Beschreibung neuer Collembolen des Hamburger Naturhistorischen Museums. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, vol. 23, no 2, p. 147-186 (texte intégral).
 (en) Womersley H., 1936. On the distribution of the Collembola of the genus Ceratrimeria Börner, with special reference to the Tasmanian and New Zealand species described by Sir John Lubbock in 1899. Proceedings Linnean Society London, Volume 148, Issue 2, March 1936, Page 82, DOI 10.1111/j.1095-8312.1936.tb00096.x.
